--- a/Sample_info.xlsx
+++ b/Sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM-huh7-RNAseq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fwestcott\OneDrive - Nexus365\Desktop\Results\HNM-huh7-RNAseq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B81B7E5-2617-4D52-AC84-8045141D0811}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46099D1-0676-4EC8-B85F-EFDDA1A6BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3975" yWindow="-345" windowWidth="19035" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
-  <si>
-    <t>Sample_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>LC1</t>
   </si>
@@ -138,7 +135,46 @@
     <t>HP6</t>
   </si>
   <si>
-    <t>Media</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>sample_ID</t>
+  </si>
+  <si>
+    <t>Low Insulin</t>
+  </si>
+  <si>
+    <t>High Insulin</t>
   </si>
   <si>
     <t>Control</t>
@@ -148,45 +184,6 @@
   </si>
   <si>
     <t>POLA</t>
-  </si>
-  <si>
-    <t>Insulin</t>
-  </si>
-  <si>
-    <t>High_Insulin</t>
-  </si>
-  <si>
-    <t>Low_Insulin</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Low_Insulin_Control</t>
-  </si>
-  <si>
-    <t>Low_Insulin_OPLA</t>
-  </si>
-  <si>
-    <t>Low_Insulin_POLA</t>
-  </si>
-  <si>
-    <t>High_Insulin_Control</t>
-  </si>
-  <si>
-    <t>High_Insulin_OPLA</t>
-  </si>
-  <si>
-    <t>High_Insulin_POLA</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -248,15 +245,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B498EFE3-06BE-4B60-BF99-1792C27A9E3F}" name="Table1" displayName="Table1" ref="A1:F37" totalsRowShown="0">
-  <autoFilter ref="A1:F37" xr:uid="{B498EFE3-06BE-4B60-BF99-1792C27A9E3F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E7119723-70BC-4380-94B3-905541615003}" name="Sample_ID"/>
-    <tableColumn id="2" xr3:uid="{C6FA9FF2-0F7B-4337-ABF2-1593B97104E2}" name="Media"/>
-    <tableColumn id="3" xr3:uid="{22D11B5A-D8CF-4A60-BC74-73B19C2C1798}" name="Insulin"/>
-    <tableColumn id="4" xr3:uid="{8EFB68E7-D2A7-4025-A2D4-A39C0F7BF560}" name="Condition"/>
-    <tableColumn id="5" xr3:uid="{9F7E79CE-1CB4-468B-B5AC-0792EA4E165C}" name="Round"/>
-    <tableColumn id="6" xr3:uid="{477C61AE-C695-4F3D-9C25-98BFEFA3476F}" name="Batch"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B498EFE3-06BE-4B60-BF99-1792C27A9E3F}" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+  <autoFilter ref="A1:E37" xr:uid="{B498EFE3-06BE-4B60-BF99-1792C27A9E3F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E7119723-70BC-4380-94B3-905541615003}" name="sample_ID"/>
+    <tableColumn id="3" xr3:uid="{19ECB159-7520-450D-BE30-45C5AE14B719}" name="insulin"/>
+    <tableColumn id="4" xr3:uid="{E8778FEB-8DFF-4F13-913D-3B1E1A791374}" name="fat"/>
+    <tableColumn id="2" xr3:uid="{DFF8A1DD-F090-433B-9D13-2CE79601588C}" name="group"/>
+    <tableColumn id="5" xr3:uid="{9F7E79CE-1CB4-468B-B5AC-0792EA4E165C}" name="exp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,761 +521,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="1" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
         <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
       </c>
       <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>6</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
